--- a/files/file_arrival/result/DS00935549_grouped.xlsx
+++ b/files/file_arrival/result/DS00935549_grouped.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,6 +424,7 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -442,6 +443,11 @@
           <t>Объем</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -455,6 +461,9 @@
       <c r="C2" t="n">
         <v>3.848</v>
       </c>
+      <c r="D2" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +477,9 @@
       <c r="C3" t="n">
         <v>0.114</v>
       </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -481,6 +493,9 @@
       <c r="C4" t="n">
         <v>0.77</v>
       </c>
+      <c r="D4" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -494,6 +509,9 @@
       <c r="C5" t="n">
         <v>0.061</v>
       </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -507,6 +525,9 @@
       <c r="C6" t="n">
         <v>3.285</v>
       </c>
+      <c r="D6" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -520,6 +541,9 @@
       <c r="C7" t="n">
         <v>0.343</v>
       </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -533,6 +557,9 @@
       <c r="C8" t="n">
         <v>1.353</v>
       </c>
+      <c r="D8" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -546,6 +573,9 @@
       <c r="C9" t="n">
         <v>0.612</v>
       </c>
+      <c r="D9" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -559,6 +589,9 @@
       <c r="C10" t="n">
         <v>0.244</v>
       </c>
+      <c r="D10" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -572,6 +605,9 @@
       <c r="C11" t="n">
         <v>2.979</v>
       </c>
+      <c r="D11" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -584,6 +620,9 @@
       </c>
       <c r="C12" t="n">
         <v>0.139</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
